--- a/bgdSelFramework/target/classes/dataEngine/DataEngine.xlsx
+++ b/bgdSelFramework/target/classes/dataEngine/DataEngine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21405" windowHeight="7110" tabRatio="575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21405" windowHeight="7110" tabRatio="575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Execution" sheetId="9" r:id="rId1"/>
@@ -46,12 +46,12 @@
     <definedName name="top_navigation">Settings!$B$2:$B$18</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L21"/>
+  <oleSize ref="A1:R21"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="500">
   <si>
     <t>Description</t>
   </si>
@@ -1548,12 +1548,16 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1604,7 +1608,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="970">
     <border>
       <left/>
       <right/>
@@ -2573,12 +2577,4080 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2666,6 +6738,232 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="137" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="145" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="149" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="157" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="161" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="165" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="181" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="189" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="193" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="197" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="201" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="205" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="209" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="213" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="217" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="221" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="225" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="229" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="233" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="237" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="241" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="245" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="249" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="253" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="257" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="261" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="265" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="269" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="273" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="277" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="281" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="285" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="289" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="293" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="297" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="301" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="305" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="309" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="313" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="317" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="321" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="325" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="329" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="333" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="337" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="341" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="345" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="349" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="353" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="357" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="361" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="365" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="369" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="373" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="377" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="381" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="385" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="389" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="393" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="397" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="401" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="405" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="409" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="413" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="417" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="421" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="425" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="429" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="433" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="437" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="441" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="445" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="449" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="453" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="457" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="461" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="465" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="469" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="473" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="477" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="481" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="485" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="489" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="493" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="497" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="501" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="505" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="509" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="513" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="517" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="521" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="525" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="529" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="533" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="537" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="541" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="545" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="549" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="553" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="557" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="561" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="565" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="569" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="573" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="577" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="581" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="585" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="589" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="593" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="597" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="601" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="605" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="609" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="613" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="617" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="621" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="625" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="629" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="633" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="637" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="641" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="645" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="649" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="653" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="657" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="661" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="665" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="669" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="673" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="677" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="681" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="685" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="689" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="693" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="697" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="701" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="705" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="709" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="713" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="717" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="721" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="725" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="729" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="733" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="737" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="741" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="745" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="749" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="753" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="757" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="761" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="765" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="769" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="773" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="777" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="781" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="785" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="789" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="793" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="797" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="801" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="805" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="809" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="813" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="817" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="821" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="825" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="829" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="833" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="837" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="841" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="845" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="849" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="853" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="857" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="861" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="865" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="869" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="873" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="877" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="881" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="885" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="889" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="893" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="897" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="901" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="905" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="909" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="913" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="917" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="921" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="925" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="929" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="933" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="937" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="941" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="945" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="949" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="953" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="957" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="961" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="965" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="969" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -2973,16 +7271,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="79.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="79.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3009,7 +7307,9 @@
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="36"/>
+      <c r="D2" t="s" s="252">
+        <v>499</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3021,7 +7321,9 @@
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="74"/>
+      <c r="D3" t="s" s="300">
+        <v>499</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3033,7 +7335,9 @@
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="76"/>
+      <c r="D4" t="s" s="302">
+        <v>499</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3057,15 +7361,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="34.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3216,9 +7520,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="80.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="80.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3386,15 +7690,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="64.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="38.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="64.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="38.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3443,7 +7747,9 @@
       <c r="G2" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="H2" s="35"/>
+      <c r="H2" t="s" s="251">
+        <v>499</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -3465,7 +7771,9 @@
       <c r="G3" t="s">
         <v>456</v>
       </c>
-      <c r="H3" s="37"/>
+      <c r="H3" t="s" s="253">
+        <v>499</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
@@ -3487,7 +7795,9 @@
       <c r="G4" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H4" s="38"/>
+      <c r="H4" t="s" s="255">
+        <v>499</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
@@ -3511,7 +7821,9 @@
       <c r="G5" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H5" s="39"/>
+      <c r="H5" t="s" s="256">
+        <v>499</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -3535,7 +7847,9 @@
       <c r="G6" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="H6" s="40"/>
+      <c r="H6" t="s" s="258">
+        <v>499</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -3559,7 +7873,9 @@
       <c r="G7" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="H7" s="41"/>
+      <c r="H7" t="s" s="259">
+        <v>499</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
@@ -3583,7 +7899,9 @@
       <c r="G8" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H8" s="42"/>
+      <c r="H8" t="s" s="261">
+        <v>499</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
@@ -3607,7 +7925,9 @@
       <c r="G9" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H9" s="43"/>
+      <c r="H9" t="s" s="262">
+        <v>499</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -3631,7 +7951,9 @@
       <c r="G10" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="H10" s="44"/>
+      <c r="H10" t="s" s="264">
+        <v>499</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
@@ -3655,7 +7977,9 @@
       <c r="G11" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="H11" s="45"/>
+      <c r="H11" t="s" s="265">
+        <v>499</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
@@ -3679,7 +8003,9 @@
       <c r="G12" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H12" s="46"/>
+      <c r="H12" t="s" s="267">
+        <v>499</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
@@ -3703,7 +8029,9 @@
       <c r="G13" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H13" s="47"/>
+      <c r="H13" t="s" s="268">
+        <v>499</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -3727,7 +8055,9 @@
       <c r="G14" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H14" s="48"/>
+      <c r="H14" t="s" s="269">
+        <v>499</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
@@ -3751,7 +8081,9 @@
       <c r="G15" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H15" s="49"/>
+      <c r="H15" t="s" s="270">
+        <v>499</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -3775,7 +8107,9 @@
       <c r="G16" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="H16" s="50"/>
+      <c r="H16" t="s" s="272">
+        <v>499</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
@@ -3799,7 +8133,9 @@
       <c r="G17" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H17" s="51"/>
+      <c r="H17" t="s" s="274">
+        <v>499</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
@@ -3823,7 +8159,9 @@
       <c r="G18" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="H18" s="52"/>
+      <c r="H18" t="s" s="276">
+        <v>499</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
@@ -3847,7 +8185,9 @@
       <c r="G19" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="H19" s="53"/>
+      <c r="H19" t="s" s="277">
+        <v>499</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
@@ -3871,7 +8211,9 @@
       <c r="G20" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="H20" s="54"/>
+      <c r="H20" t="s" s="279">
+        <v>499</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
@@ -3895,7 +8237,9 @@
       <c r="G21" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="H21" s="55"/>
+      <c r="H21" t="s" s="280">
+        <v>499</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
@@ -3919,7 +8263,9 @@
       <c r="G22" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="H22" s="56"/>
+      <c r="H22" t="s" s="281">
+        <v>499</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
@@ -3943,7 +8289,9 @@
       <c r="G23" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="H23" s="57"/>
+      <c r="H23" t="s" s="282">
+        <v>499</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
@@ -3967,7 +8315,9 @@
       <c r="G24" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="H24" s="58"/>
+      <c r="H24" t="s" s="283">
+        <v>499</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
@@ -3991,7 +8341,9 @@
       <c r="G25" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="H25" s="59"/>
+      <c r="H25" t="s" s="284">
+        <v>499</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
@@ -4015,7 +8367,9 @@
       <c r="G26" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="H26" s="60"/>
+      <c r="H26" t="s" s="285">
+        <v>499</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
@@ -4039,7 +8393,9 @@
       <c r="G27" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="H27" s="61"/>
+      <c r="H27" t="s" s="286">
+        <v>499</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
@@ -4063,7 +8419,9 @@
       <c r="G28" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="H28" s="62"/>
+      <c r="H28" t="s" s="287">
+        <v>499</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
@@ -4087,7 +8445,9 @@
       <c r="G29" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="H29" s="63"/>
+      <c r="H29" t="s" s="288">
+        <v>499</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -4109,7 +8469,9 @@
       <c r="G30" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H30" s="64"/>
+      <c r="H30" t="s" s="289">
+        <v>499</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
@@ -4133,7 +8495,9 @@
       <c r="G31" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="H31" s="65"/>
+      <c r="H31" t="s" s="290">
+        <v>499</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
@@ -4157,7 +8521,9 @@
       <c r="G32" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H32" s="66"/>
+      <c r="H32" t="s" s="291">
+        <v>499</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
@@ -4181,7 +8547,9 @@
       <c r="G33" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="H33" s="67"/>
+      <c r="H33" t="s" s="293">
+        <v>499</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
@@ -4205,7 +8573,9 @@
       <c r="G34" t="s">
         <v>452</v>
       </c>
-      <c r="H34" s="68"/>
+      <c r="H34" t="s" s="294">
+        <v>499</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
@@ -4229,7 +8599,9 @@
       <c r="G35" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="H35" s="69"/>
+      <c r="H35" t="s" s="295">
+        <v>499</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
@@ -4253,7 +8625,9 @@
       <c r="G36" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="H36" s="70"/>
+      <c r="H36" t="s" s="296">
+        <v>499</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
@@ -4277,7 +8651,9 @@
       <c r="G37" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="H37" s="71"/>
+      <c r="H37" t="s" s="297">
+        <v>499</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
@@ -4301,7 +8677,9 @@
       <c r="G38" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="H38" s="72"/>
+      <c r="H38" t="s" s="298">
+        <v>499</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
@@ -4325,7 +8703,9 @@
       <c r="G39" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="H39" s="73"/>
+      <c r="H39" t="s" s="299">
+        <v>499</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
@@ -4369,7 +8749,9 @@
       <c r="G41" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="H41" s="75"/>
+      <c r="H41" t="s" s="301">
+        <v>499</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -4399,24 +8781,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="9" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="4" max="9" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="13" max="14" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4589,33 +8971,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/bgdSelFramework/target/classes/dataEngine/DataEngine.xlsx
+++ b/bgdSelFramework/target/classes/dataEngine/DataEngine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21405" windowHeight="7110" tabRatio="575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21405" windowHeight="7110" tabRatio="575"/>
   </bookViews>
   <sheets>
     <sheet name="Execution" sheetId="9" r:id="rId1"/>
@@ -46,12 +46,12 @@
     <definedName name="top_navigation">Settings!$B$2:$B$18</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:R21"/>
+  <oleSize ref="A1:L21"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="499">
   <si>
     <t>Description</t>
   </si>
@@ -1263,9 +1263,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>hvr_filDia_signature_DF</t>
@@ -1557,7 +1554,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1608,7 +1604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="970">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -2577,4080 +2573,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -6738,232 +2666,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="137" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="145" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="149" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="157" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="161" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="165" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="181" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="189" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="193" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="197" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="201" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="205" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="209" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="213" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="217" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="221" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="225" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="229" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="233" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="237" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="241" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="245" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="249" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="253" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="257" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="261" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="265" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="269" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="273" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="277" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="281" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="285" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="289" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="293" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="297" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="301" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="305" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="309" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="313" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="317" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="321" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="325" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="329" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="333" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="337" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="341" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="345" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="349" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="353" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="357" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="361" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="365" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="369" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="373" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="377" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="381" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="385" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="389" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="393" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="397" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="401" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="405" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="409" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="413" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="417" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="421" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="425" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="429" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="433" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="437" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="441" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="445" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="449" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="453" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="457" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="461" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="465" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="469" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="473" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="477" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="481" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="485" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="489" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="493" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="497" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="501" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="505" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="509" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="513" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="517" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="521" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="525" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="529" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="533" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="537" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="541" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="545" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="549" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="553" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="557" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="561" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="565" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="569" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="573" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="577" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="581" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="585" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="589" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="593" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="597" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="601" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="605" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="609" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="613" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="617" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="621" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="625" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="629" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="633" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="637" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="641" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="645" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="649" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="653" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="657" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="661" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="665" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="669" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="673" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="677" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="681" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="685" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="689" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="693" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="697" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="701" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="705" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="709" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="713" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="717" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="721" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="725" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="729" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="733" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="737" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="741" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="745" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="749" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="753" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="757" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="761" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="765" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="769" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="773" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="777" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="781" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="785" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="789" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="793" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="797" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="801" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="805" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="809" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="813" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="817" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="821" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="825" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="829" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="833" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="837" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="841" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="845" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="849" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="853" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="857" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="861" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="865" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="869" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="873" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="877" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="881" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="885" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="889" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="893" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="897" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="901" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="905" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="909" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="913" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="917" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="921" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="925" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="929" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="933" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="937" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="941" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="945" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="949" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="953" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="957" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="961" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="965" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="969" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -7271,21 +2973,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="79.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="25" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="79.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -7302,52 +3004,52 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s" s="252">
-        <v>499</v>
+      <c r="D2" s="36" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s" s="300">
-        <v>499</v>
+      <c r="D3" s="74" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s" s="302">
-        <v>499</v>
+      <c r="D4" s="76" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="D5" s="24"/>
     </row>
@@ -7361,15 +3063,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="34.5703125" collapsed="true"/>
+    <col min="1" max="2" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -7380,10 +3082,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7394,10 +3096,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7417,7 +3119,7 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7427,7 +3129,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7437,7 +3139,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7447,7 +3149,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7457,7 +3159,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -7467,7 +3169,7 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -7477,7 +3179,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -7487,7 +3189,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -7497,7 +3199,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -7520,9 +3222,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="80.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="80.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7541,16 +3243,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C3" s="22"/>
     </row>
@@ -7565,82 +3267,82 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C8" s="27"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C9" s="28"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C10" s="29"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C11" s="30"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C12" s="31"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C13" s="32"/>
     </row>
@@ -7655,10 +3357,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C15" s="34"/>
     </row>
@@ -7685,20 +3387,20 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H41"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="64.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="38.140625" collapsed="true"/>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="64.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="38.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7747,19 +3449,19 @@
       <c r="G2" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="H2" t="s" s="251">
-        <v>499</v>
+      <c r="H2" s="35" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
@@ -7769,10 +3471,10 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>456</v>
-      </c>
-      <c r="H3" t="s" s="253">
-        <v>499</v>
+        <v>455</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -7795,8 +3497,8 @@
       <c r="G4" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H4" t="s" s="255">
-        <v>499</v>
+      <c r="H4" s="38" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -7818,16 +3520,14 @@
       <c r="F5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="H5" t="s" s="256">
-        <v>499</v>
+      <c r="G5" s="17"/>
+      <c r="H5" s="39" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>1</v>
@@ -7847,13 +3547,13 @@
       <c r="G6" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="H6" t="s" s="258">
-        <v>499</v>
+      <c r="H6" s="40" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>8</v>
@@ -7873,13 +3573,13 @@
       <c r="G7" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="H7" t="s" s="259">
-        <v>499</v>
+      <c r="H7" s="41" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>1</v>
@@ -7899,13 +3599,13 @@
       <c r="G8" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H8" t="s" s="261">
-        <v>499</v>
+      <c r="H8" s="42" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>8</v>
@@ -7925,13 +3625,13 @@
       <c r="G9" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H9" t="s" s="262">
-        <v>499</v>
+      <c r="H9" s="43" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>1</v>
@@ -7948,16 +3648,16 @@
       <c r="F10" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="H10" t="s" s="264">
-        <v>499</v>
+      <c r="G10" s="6">
+        <v>7</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>8</v>
@@ -7977,13 +3677,13 @@
       <c r="G11" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="H11" t="s" s="265">
-        <v>499</v>
+      <c r="H11" s="45" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>1</v>
@@ -7995,7 +3695,7 @@
         <v>374</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>402</v>
@@ -8003,13 +3703,13 @@
       <c r="G12" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H12" t="s" s="267">
-        <v>499</v>
+      <c r="H12" s="46" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>8</v>
@@ -8029,13 +3729,13 @@
       <c r="G13" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H13" t="s" s="268">
-        <v>499</v>
+      <c r="H13" s="47" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>23</v>
@@ -8055,13 +3755,13 @@
       <c r="G14" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H14" t="s" s="269">
-        <v>499</v>
+      <c r="H14" s="48" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>9</v>
@@ -8081,13 +3781,13 @@
       <c r="G15" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H15" t="s" s="270">
-        <v>499</v>
+      <c r="H15" s="49" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>1</v>
@@ -8107,13 +3807,13 @@
       <c r="G16" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="H16" t="s" s="272">
-        <v>499</v>
+      <c r="H16" s="50" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>1</v>
@@ -8133,19 +3833,19 @@
       <c r="G17" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H17" t="s" s="274">
-        <v>499</v>
+      <c r="H17" s="51" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>38</v>
@@ -8159,19 +3859,19 @@
       <c r="G18" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="H18" t="s" s="276">
-        <v>499</v>
+      <c r="H18" s="52" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>39</v>
@@ -8185,19 +3885,19 @@
       <c r="G19" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="H19" t="s" s="277">
-        <v>499</v>
+      <c r="H19" s="53" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>40</v>
@@ -8209,21 +3909,21 @@
         <v>18</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="H20" t="s" s="279">
-        <v>499</v>
+        <v>432</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>40</v>
@@ -8235,21 +3935,21 @@
         <v>18</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="H21" t="s" s="280">
-        <v>499</v>
+        <v>433</v>
+      </c>
+      <c r="H21" s="55" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>40</v>
@@ -8261,21 +3961,21 @@
         <v>18</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="H22" t="s" s="281">
-        <v>499</v>
+        <v>434</v>
+      </c>
+      <c r="H22" s="56" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>40</v>
@@ -8287,21 +3987,21 @@
         <v>18</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="H23" t="s" s="282">
-        <v>499</v>
+        <v>435</v>
+      </c>
+      <c r="H23" s="57" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>40</v>
@@ -8313,21 +4013,21 @@
         <v>18</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>437</v>
-      </c>
-      <c r="H24" t="s" s="283">
-        <v>499</v>
+        <v>436</v>
+      </c>
+      <c r="H24" s="58" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>40</v>
@@ -8339,21 +4039,21 @@
         <v>384</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="H25" t="s" s="284">
-        <v>499</v>
+        <v>437</v>
+      </c>
+      <c r="H25" s="59" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>40</v>
@@ -8365,21 +4065,21 @@
         <v>18</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>484</v>
-      </c>
-      <c r="H26" t="s" s="285">
-        <v>499</v>
+        <v>483</v>
+      </c>
+      <c r="H26" s="60" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>389</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>40</v>
@@ -8391,21 +4091,21 @@
         <v>384</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="H27" t="s" s="286">
-        <v>499</v>
+        <v>438</v>
+      </c>
+      <c r="H27" s="61" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>390</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>40</v>
@@ -8417,21 +4117,21 @@
         <v>18</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="H28" t="s" s="287">
-        <v>499</v>
+        <v>439</v>
+      </c>
+      <c r="H28" s="62" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>391</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>40</v>
@@ -8443,21 +4143,21 @@
         <v>18</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="H29" t="s" s="288">
-        <v>499</v>
+        <v>439</v>
+      </c>
+      <c r="H29" s="63" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17" t="s">
@@ -8469,19 +4169,19 @@
       <c r="G30" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H30" t="s" s="289">
-        <v>499</v>
+      <c r="H30" s="64" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>40</v>
@@ -8493,21 +4193,21 @@
         <v>384</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="H31" t="s" s="290">
-        <v>499</v>
+        <v>440</v>
+      </c>
+      <c r="H31" s="65" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B32" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>490</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>491</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>40</v>
@@ -8521,19 +4221,19 @@
       <c r="G32" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H32" t="s" s="291">
-        <v>499</v>
+      <c r="H32" s="66" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>41</v>
@@ -8545,21 +4245,21 @@
         <v>18</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="H33" t="s" s="293">
-        <v>499</v>
+        <v>484</v>
+      </c>
+      <c r="H33" s="67" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>41</v>
@@ -8571,21 +4271,21 @@
         <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>452</v>
-      </c>
-      <c r="H34" t="s" s="294">
-        <v>499</v>
+        <v>451</v>
+      </c>
+      <c r="H34" s="68" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>41</v>
@@ -8597,21 +4297,21 @@
         <v>384</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="H35" t="s" s="295">
-        <v>499</v>
+        <v>450</v>
+      </c>
+      <c r="H35" s="69" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>41</v>
@@ -8623,21 +4323,21 @@
         <v>384</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="H36" t="s" s="296">
-        <v>499</v>
+        <v>485</v>
+      </c>
+      <c r="H36" s="70" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>41</v>
@@ -8649,21 +4349,21 @@
         <v>18</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="H37" t="s" s="297">
-        <v>499</v>
+        <v>486</v>
+      </c>
+      <c r="H37" s="71" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>41</v>
@@ -8677,19 +4377,19 @@
       <c r="G38" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="H38" t="s" s="298">
-        <v>499</v>
+      <c r="H38" s="72" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>41</v>
@@ -8703,8 +4403,8 @@
       <c r="G39" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="H39" t="s" s="299">
-        <v>499</v>
+      <c r="H39" s="73" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -8731,26 +4431,26 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
         <v>403</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="H41" t="s" s="301">
-        <v>499</v>
+      <c r="H41" s="75" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25"/>
@@ -8781,24 +4481,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="4" max="9" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="13" max="14" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="9" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8806,39 +4506,39 @@
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>482</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>382</v>
@@ -8855,10 +4555,10 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -8872,7 +4572,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B4" s="1">
         <v>7</v>
@@ -8889,51 +4589,51 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="I5" s="1">
         <v>12345</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C6" s="1">
         <v>411111111111111</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E6" s="1">
         <v>2016</v>
@@ -8971,33 +4671,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="36.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9130,7 +4830,7 @@
         <v>286</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>249</v>
@@ -9216,7 +4916,7 @@
         <v>287</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>250</v>
@@ -9300,7 +5000,7 @@
         <v>288</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>251</v>
@@ -9379,10 +5079,10 @@
         <v>240</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>252</v>
@@ -9461,10 +5161,10 @@
         <v>241</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>253</v>
@@ -9541,10 +5241,10 @@
         <v>242</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>254</v>
@@ -9618,7 +5318,7 @@
         <v>289</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>255</v>
@@ -9692,7 +5392,7 @@
         <v>290</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>256</v>
@@ -9766,7 +5466,7 @@
         <v>291</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
@@ -9832,7 +5532,7 @@
         <v>292</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
@@ -9853,7 +5553,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -9894,7 +5594,7 @@
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">

--- a/bgdSelFramework/target/classes/dataEngine/DataEngine.xlsx
+++ b/bgdSelFramework/target/classes/dataEngine/DataEngine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21405" windowHeight="7110" tabRatio="575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16335" windowHeight="3450" tabRatio="575"/>
   </bookViews>
   <sheets>
     <sheet name="Execution" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="searchResults_diamond">Settings!$Q$2:$Q$13</definedName>
     <definedName name="searchResults_setting">Settings!$P$2:$P$9</definedName>
     <definedName name="shopping_cart">Settings!$V$2:$V$6</definedName>
-    <definedName name="testCases">'Test Cases'!$A$2:$A$15</definedName>
+    <definedName name="testCases">'Test Cases'!$A$2:$A$17</definedName>
     <definedName name="top_nav_customDesign">Settings!$E$2:$E$17</definedName>
     <definedName name="top_nav_designers">Settings!$I$2:$I$15</definedName>
     <definedName name="top_nav_diamonds">Settings!$D$2:$D$27</definedName>
@@ -45,13 +45,13 @@
     <definedName name="top_nav_whyUs">Settings!$K$2:$K$22</definedName>
     <definedName name="top_navigation">Settings!$B$2:$B$18</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:L21"/>
+  <calcPr calcId="152511"/>
+  <oleSize ref="A4:F12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="508">
   <si>
     <t>Description</t>
   </si>
@@ -92,18 +92,9 @@
     <t>TS_007</t>
   </si>
   <si>
-    <t>Open the Browser</t>
-  </si>
-  <si>
     <t>TS_ID</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Page Name</t>
   </si>
   <si>
@@ -1199,9 +1190,6 @@
     <t>closeInitialPopup_01</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
     <t>Set a value for the  "Select Ring Size" drop down</t>
   </si>
   <si>
@@ -1409,15 +1397,9 @@
     <t>chase day</t>
   </si>
   <si>
-    <t>openBrowser_01</t>
-  </si>
-  <si>
     <t>navigate_01</t>
   </si>
   <si>
-    <t>Open Browser</t>
-  </si>
-  <si>
     <t>http://bgd.softwaydev.com/</t>
   </si>
   <si>
@@ -1544,10 +1526,55 @@
     <t>Example additional suite</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>openChromeBrowser</t>
+  </si>
+  <si>
+    <t>openIEBrowser</t>
+  </si>
+  <si>
+    <t>openFirefoxBrowser</t>
+  </si>
+  <si>
+    <t>Open the Chrome browser</t>
+  </si>
+  <si>
+    <t>Open the Firefox browser</t>
+  </si>
+  <si>
+    <t>Open the Internet Explorer browser</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Open Chrome browser</t>
+  </si>
+  <si>
+    <t>Open Firefox browser</t>
+  </si>
+  <si>
+    <t>Open Internet Explorer browser</t>
+  </si>
+  <si>
+    <t>Open Chrome Browser</t>
+  </si>
+  <si>
+    <t>Open Firefox Browser</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1763,822 +1790,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2604,68 +1821,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -2971,23 +2134,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="79.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2995,64 +2158,94 @@
       <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="H5" t="s">
         <v>491</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D5" s="24"/>
-    </row>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3061,150 +2254,185 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>2</v>
+        <v>496</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>496</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>457</v>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D12 A2:C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F12 A2:E2">
       <formula1>testCases</formula1>
     </dataValidation>
   </dataValidations>
@@ -3216,8 +2444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3234,138 +2462,135 @@
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>496</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C2" s="21"/>
+        <v>503</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C3" s="22"/>
+        <v>505</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>381</v>
+        <v>498</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C4" s="23"/>
+        <v>504</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C5" s="24"/>
+        <v>450</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>460</v>
+        <v>378</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C6" s="25"/>
+        <v>382</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C7" s="26"/>
+        <v>459</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C8" s="27"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C9" s="28"/>
+        <v>460</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C10" s="29"/>
+        <v>463</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>418</v>
+        <v>456</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C11" s="30"/>
+        <v>462</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>458</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C12" s="31"/>
+        <v>464</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>457</v>
+        <v>414</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C13" s="32"/>
+        <v>444</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>452</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="34"/>
+        <v>465</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C15" s="34"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25"/>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25"/>
@@ -3386,8 +2611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3408,1061 +2633,979 @@
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>498</v>
+      <c r="G2" s="18" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>456</v>
+        <v>501</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
-        <v>403</v>
-      </c>
+      <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="H3" s="37" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="B4" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C14" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="D16" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="39" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="G16" s="16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>460</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>460</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="G10" s="6">
-        <v>7</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="H11" s="45" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="17" t="s">
+      <c r="G17" s="16" t="s">
         <v>399</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="H13" s="47" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="H15" s="49" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="D27" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="D30" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="F34" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="H18" s="52" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="H19" s="53" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="H20" s="54" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="H21" s="55" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="H22" s="56" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="H23" s="57" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="H24" s="58" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>437</v>
-      </c>
-      <c r="H25" s="59" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>483</v>
-      </c>
-      <c r="H26" s="60" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="H27" s="61" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="H28" s="62" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="H29" s="63" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>488</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="H30" s="64" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="H31" s="65" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>490</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="H32" s="66" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="H33" s="67" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>451</v>
-      </c>
-      <c r="H34" s="68" t="s">
-        <v>498</v>
+      <c r="G34" s="16" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>384</v>
+        <v>15</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="H35" s="69" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>9</v>
+        <v>451</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="H36" s="70" t="s">
-        <v>498</v>
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>10</v>
+        <v>451</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>18</v>
+        <v>380</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="H37" s="71" t="s">
-        <v>498</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>4</v>
+        <v>380</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="H38" s="72" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="F39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="H39" s="73" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="H40" s="33"/>
+      <c r="G40" s="10" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="B41" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="H41" s="75" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25"/>
+      <c r="C42" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D5:D41">
       <formula1>page_name</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E5:E41">
       <formula1>INDIRECT(D2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F43">
       <formula1>action_keywords</formula1>
     </dataValidation>
   </dataValidations>
@@ -4476,7 +3619,7 @@
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4506,42 +3649,42 @@
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="I1" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="J1" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="K1" s="13" t="s">
         <v>476</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>382</v>
+        <v>449</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4555,10 +3698,10 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4572,81 +3715,65 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+        <v>452</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="I4" s="1">
+        <v>12345</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>432</v>
+        <v>447</v>
+      </c>
+      <c r="C5" s="1">
+        <v>411111111111111</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="I5" s="1">
-        <v>12345</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C6" s="1">
-        <v>411111111111111</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E6" s="1">
+        <v>446</v>
+      </c>
+      <c r="E5" s="1">
         <v>2016</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F5" s="1">
         <v>123</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -4702,171 +3829,171 @@
   <sheetData>
     <row r="1" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="X1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>379</v>
-      </c>
       <c r="AB1" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>2</v>
@@ -4874,82 +4001,82 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1" t="s">
@@ -4958,79 +4085,79 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
@@ -5040,159 +4167,159 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
@@ -5202,275 +4329,275 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -5479,64 +4606,64 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -5545,60 +4672,60 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -5607,10 +4734,10 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
@@ -5618,47 +4745,47 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -5667,10 +4794,10 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
@@ -5678,39 +4805,39 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -5721,10 +4848,10 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
@@ -5732,39 +4859,39 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -5776,7 +4903,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
@@ -5784,37 +4911,37 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -5826,7 +4953,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
@@ -5834,37 +4961,37 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -5876,7 +5003,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
@@ -5884,35 +5011,35 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -5924,7 +5051,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
@@ -5932,33 +5059,33 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -5970,7 +5097,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
@@ -5978,33 +5105,33 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -6016,7 +5143,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
@@ -6024,33 +5151,33 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -6062,7 +5189,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
@@ -6070,33 +5197,33 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -6108,7 +5235,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
@@ -6116,18 +5243,18 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -6136,7 +5263,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -6148,7 +5275,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
@@ -6156,18 +5283,18 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -6176,7 +5303,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -6188,7 +5315,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
@@ -6196,12 +5323,12 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -6214,7 +5341,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -6226,7 +5353,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
@@ -6234,12 +5361,12 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -6252,7 +5379,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -6270,12 +5397,12 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -6288,7 +5415,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -6320,7 +5447,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -6352,7 +5479,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -6384,7 +5511,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -6416,7 +5543,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -6448,7 +5575,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -6480,7 +5607,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -6512,7 +5639,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -6544,7 +5671,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -6576,7 +5703,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>

--- a/bgdSelFramework/target/classes/dataEngine/DataEngine.xlsx
+++ b/bgdSelFramework/target/classes/dataEngine/DataEngine.xlsx
@@ -45,13 +45,13 @@
     <definedName name="top_nav_whyUs">Settings!$K$2:$K$22</definedName>
     <definedName name="top_navigation">Settings!$B$2:$B$18</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <oleSize ref="A4:F12"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:F9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="508">
   <si>
     <t>Description</t>
   </si>
@@ -2444,7 +2444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2611,7 +2611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
